--- a/va_facility_data_2025-02-20/Allentown VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Allentown%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Allentown VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Allentown%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R12183a8d06fe41e8be5a67c20d621c69"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re60aea3921b54bf9a8ebc3f18a674130"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R06804b0d55c8483eaf804172bed8c156"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R7c6e87ad0847452983afb4c7f0ceba5f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R09b5eaaa63874f25b4d82ba9df74c3c0"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra22cf77b88fd4261b73d44c4c3e4fdfb"/>
   </x:sheets>
 </x:workbook>
 </file>
